--- a/figures/Table_8_Macroevolutionary_hypotheses_simplified.xlsx
+++ b/figures/Table_8_Macroevolutionary_hypotheses_simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F2144-F59C-442B-ACC4-BB634925F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F7031-BCC6-4BC6-B224-9796F71758D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0AC7703B-2203-4566-979C-0B8838F7C40B}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,5 +707,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>